--- a/InputHandler/tour plan.xlsx
+++ b/InputHandler/tour plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\OneDrive\comp3111\project\2017F-COMP3111\Project\topic 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Comp3111\Line-chatbot-for-COMP3111-GP29\InputHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="1ED5B3A759062108A049877916E10D87C4A8A59D" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{42D8974E-BA49-4846-9ACD-77C4EB6374D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour List" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -325,6 +324,10 @@
   </si>
   <si>
     <t>Number of Toodler (&lt;=3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekday 399 / Weekend 499</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,25 +683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.5" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="6" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="33.296875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -709,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +738,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2D001&lt;/td&gt;&lt;td&gt;Shimen colorful pond * stunning red maple * Staying at "Yihua Hot Spring Hotel"&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Mon / Wed / Sat&lt;/td&gt;&lt;td&gt;Weekday 499 / Weekend 599&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -757,7 +762,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2D002&lt;/td&gt;&lt;td&gt;Unlimited use of hot spring * Famous Yangshan roaster cusine&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Mon / Wed / Fri&lt;/td&gt;&lt;td&gt;Weekday 299 / Weekend 399&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,14 +779,14 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;2D003&lt;/td&gt;&lt;td&gt;Five Stars Hot Spring Resort * 68 different types of hot spring * Water theme park&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Mon / Fri / Sat&lt;/td&gt;&lt;td&gt;Weekday 299 / Weekend 399&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;2D003&lt;/td&gt;&lt;td&gt;Five Stars Hot Spring Resort * 68 different types of hot spring * Water theme park&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Mon / Fri / Sat&lt;/td&gt;&lt;td&gt;Weekday 399 / Weekend 499&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -805,7 +810,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2D004&lt;/td&gt;&lt;td&gt;Green Lake District (Ferry Tour Included) * Asia tallest musical fountain * Staying at 4 stars hotel &lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Tue / Sat &lt;/td&gt;&lt;td&gt;Weekday 299 / Weekend 399&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -829,7 +834,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2D005&lt;/td&gt;&lt;td&gt;Once-a-year beautiful "Four-fins-maple" on mountain top * BBQ chicken and piglet in a lost traditional way &lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;Tue / Sat&lt;/td&gt;&lt;td&gt;Weekday 399 / Weekend 499&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -853,7 +858,7 @@
         <v>&lt;tr&gt;&lt;td&gt;3D019&lt;/td&gt;&lt;td&gt;Baiyun Mountain * the Site of the Huangpu Military Academy * the South China Botanical Gardens.  * 4 stars hotel&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;Mon / Wed / Sat&lt;/td&gt;&lt;td&gt;Weekday 599 / Weekend 799&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -877,7 +882,7 @@
         <v>&lt;tr&gt;&lt;td&gt;3D075&lt;/td&gt;&lt;td&gt;Kaiping Watchtowers * Jinshan Hot Spring * 5 starts hotel&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;Mon / Wed / Sat&lt;/td&gt;&lt;td&gt;Weekday 699 / Weekend 899&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -901,7 +906,7 @@
         <v>&lt;tr&gt;&lt;td&gt;3D077&lt;/td&gt;&lt;td&gt;Nanhua Temple * Danxia Mountain * Nanling National Forest Park&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;Tue / Thu&lt;/td&gt;&lt;td&gt;499&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -925,7 +930,7 @@
         <v>&lt;tr&gt;&lt;td&gt;3D010&lt;/td&gt;&lt;td&gt;Jinding * Tangjiawan * Gongbei * Including one night staying at 5-stars casino resort in Macau&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;Wed / Sun&lt;/td&gt;&lt;td&gt;Weekday 699 / Weekend 899&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -949,7 +954,7 @@
         <v>&lt;tr&gt;&lt;td&gt;3D991&lt;/td&gt;&lt;td&gt;Baojing Palace of Yingde * Sankeng Hot Spring * Sankeng Hot Spring &lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;7/10/2017, 17/10/2017, 24/10/2017&lt;/td&gt;&lt;td&gt;899&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -988,24 +993,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="4" max="4" width="42.296875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.8984375" customWidth="1"/>
+    <col min="8" max="8" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -1280,12 +1285,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -1605,20 +1610,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.59765625" customWidth="1"/>
+    <col min="5" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="9" width="23.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>94</v>
       </c>
